--- a/Roithner Laser S6305MG/Roithner_S6305MG_OpticalPower_Laser01.xlsx
+++ b/Roithner Laser S6305MG/Roithner_S6305MG_OpticalPower_Laser01.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Laser Spectrum\Roithner Laser S6305MG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B58F3B2-5C12-41CC-BCB7-2B64905152B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A493FE-8EF7-42E0-AA71-7B05A2BF72B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="5" r:id="rId1"/>
     <sheet name="OpticalPower_vs_Current_20ºC" sheetId="6" r:id="rId2"/>
     <sheet name="OpticalPower_vs_Current_25º" sheetId="7" r:id="rId3"/>
-    <sheet name="OpticalPower_vs_Temp_15mA" sheetId="8" r:id="rId4"/>
+    <sheet name="OpticalPower_vs_Temp" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -2129,7 +2129,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>OpticalPower_vs_Temp_15mA!$O$11:$O$30</c:f>
+                <c:f>OpticalPower_vs_Temp!$O$11:$O$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
@@ -2168,7 +2168,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>OpticalPower_vs_Temp_15mA!$O$11:$O$30</c:f>
+                <c:f>OpticalPower_vs_Temp!$O$11:$O$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
@@ -2226,7 +2226,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>OpticalPower_vs_Temp_15mA!$U$11:$U$30</c:f>
+                <c:f>OpticalPower_vs_Temp!$U$11:$U$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
@@ -2265,7 +2265,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>OpticalPower_vs_Temp_15mA!$U$11:$U$30</c:f>
+                <c:f>OpticalPower_vs_Temp!$U$11:$U$30</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
@@ -2318,7 +2318,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>OpticalPower_vs_Temp_15mA!$N$11:$N$31</c:f>
+              <c:f>OpticalPower_vs_Temp!$N$11:$N$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2357,7 +2357,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OpticalPower_vs_Temp_15mA!$T$11:$T$31</c:f>
+              <c:f>OpticalPower_vs_Temp!$T$11:$T$31</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="21"/>
@@ -4772,7 +4772,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -5245,11 +5245,11 @@
         <v>0.63</v>
       </c>
       <c r="N11" s="8">
-        <f>AVERAGE(E11:F11)</f>
+        <f t="shared" ref="N11:N16" si="0">AVERAGE(E11:F11)</f>
         <v>24.005000000000003</v>
       </c>
       <c r="O11" s="8">
-        <f>(F11-E11)/2+0.5</f>
+        <f t="shared" ref="O11:O16" si="1">(F11-E11)/2+0.5</f>
         <v>0.50500000000000078</v>
       </c>
       <c r="P11" s="7">
@@ -5308,31 +5308,31 @@
         <v>1.2509999999999999</v>
       </c>
       <c r="N12" s="8">
-        <f>AVERAGE(E12:F12)</f>
+        <f t="shared" si="0"/>
         <v>25.03</v>
       </c>
       <c r="O12" s="8">
-        <f>(F12-E12)/2+0.5</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="P12" s="7">
-        <f t="shared" ref="P12:P24" si="0">AVERAGE(G12:H12)</f>
+        <f t="shared" ref="P12:P24" si="2">AVERAGE(G12:H12)</f>
         <v>0.28749999999999998</v>
       </c>
       <c r="R12" s="7">
-        <f t="shared" ref="R12:R24" si="1">AVERAGE(I12:J12)</f>
+        <f t="shared" ref="R12:R24" si="3">AVERAGE(I12:J12)</f>
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="S12" s="7">
-        <f t="shared" ref="S12:S24" si="2">(J12-I12)/2+0.01</f>
+        <f t="shared" ref="S12:S24" si="4">(J12-I12)/2+0.01</f>
         <v>0.01</v>
       </c>
       <c r="T12" s="7">
-        <f t="shared" ref="T12:T24" si="3">AVERAGE(K12:L12)</f>
+        <f t="shared" ref="T12:T24" si="5">AVERAGE(K12:L12)</f>
         <v>1.2504999999999999</v>
       </c>
       <c r="U12" s="7">
-        <f t="shared" ref="U12:U24" si="4">(L12-K12)/2+T12*SQRT(0.03^2+0.002^2)</f>
+        <f t="shared" ref="U12:U24" si="6">(L12-K12)/2+T12*SQRT(0.03^2+0.002^2)</f>
         <v>3.8098274242310583E-2</v>
       </c>
     </row>
@@ -5362,31 +5362,31 @@
         <v>1.891</v>
       </c>
       <c r="N13" s="8">
-        <f>AVERAGE(E13:F13)</f>
+        <f t="shared" si="0"/>
         <v>26.07</v>
       </c>
       <c r="O13" s="8">
-        <f>(F13-E13)/2+0.5</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="P13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.4355</v>
       </c>
       <c r="R13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="S13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="T13" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.8904999999999998</v>
       </c>
       <c r="U13" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.7340893606628016E-2</v>
       </c>
     </row>
@@ -5416,31 +5416,31 @@
         <v>2.524</v>
       </c>
       <c r="N14" s="8">
-        <f>AVERAGE(E14:F14)</f>
+        <f t="shared" si="0"/>
         <v>27.09</v>
       </c>
       <c r="O14" s="8">
-        <f>(F14-E14)/2+0.5</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="P14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.58450000000000002</v>
       </c>
       <c r="R14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="S14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="T14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.5235000000000003</v>
       </c>
       <c r="U14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.6373046821648014E-2</v>
       </c>
     </row>
@@ -5470,31 +5470,31 @@
         <v>3.1139999999999999</v>
       </c>
       <c r="N15" s="8">
-        <f>AVERAGE(E15:F15)</f>
+        <f t="shared" si="0"/>
         <v>28.05</v>
       </c>
       <c r="O15" s="8">
-        <f>(F15-E15)/2+0.5</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="P15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.72350000000000003</v>
       </c>
       <c r="R15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="S15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="T15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.1135000000000002</v>
       </c>
       <c r="U15" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.4112336548128048E-2</v>
       </c>
     </row>
@@ -5524,31 +5524,31 @@
         <v>3.7080000000000002</v>
       </c>
       <c r="N16" s="8">
-        <f>AVERAGE(E16:F16)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="O16" s="8">
-        <f>(F16-E16)/2+0.5</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="P16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.86450000000000005</v>
       </c>
       <c r="R16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="S16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="T16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.7060000000000004</v>
       </c>
       <c r="U16" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.1134267927565</v>
       </c>
     </row>
@@ -5578,31 +5578,31 @@
         <v>4.3460000000000001</v>
       </c>
       <c r="N17" s="8">
-        <f t="shared" ref="N17:N24" si="5">AVERAGE(E17:F17)</f>
+        <f t="shared" ref="N17:N24" si="7">AVERAGE(E17:F17)</f>
         <v>30.015000000000001</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" ref="O17:O24" si="6">(F17-E17)/2+0.5</f>
+        <f t="shared" ref="O17:O24" si="8">(F17-E17)/2+0.5</f>
         <v>0.50499999999999901</v>
       </c>
       <c r="P17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0190000000000001</v>
       </c>
       <c r="R17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="S17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.01</v>
       </c>
       <c r="T17" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.3450000000000006</v>
       </c>
       <c r="U17" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.13163934552806048</v>
       </c>
     </row>
@@ -5632,31 +5632,31 @@
         <v>5.0019999999999998</v>
       </c>
       <c r="N18" s="8">
+        <f t="shared" si="7"/>
+        <v>31.05</v>
+      </c>
+      <c r="O18" s="8">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="P18" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1775</v>
+      </c>
+      <c r="R18" s="7">
+        <f t="shared" si="3"/>
+        <v>0.113</v>
+      </c>
+      <c r="S18" s="7">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="T18" s="7">
         <f t="shared" si="5"/>
-        <v>31.05</v>
-      </c>
-      <c r="O18" s="8">
+        <v>5</v>
+      </c>
+      <c r="U18" s="7">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="P18" s="7">
-        <f t="shared" si="0"/>
-        <v>1.1775</v>
-      </c>
-      <c r="R18" s="7">
-        <f t="shared" si="1"/>
-        <v>0.113</v>
-      </c>
-      <c r="S18" s="7">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="T18" s="7">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="U18" s="7">
-        <f t="shared" si="4"/>
         <v>0.15233296378372885</v>
       </c>
     </row>
@@ -5686,31 +5686,31 @@
         <v>5.6539999999999999</v>
       </c>
       <c r="N19" s="8">
+        <f t="shared" si="7"/>
+        <v>32.090000000000003</v>
+      </c>
+      <c r="O19" s="8">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="P19" s="7">
+        <f t="shared" si="2"/>
+        <v>1.3425</v>
+      </c>
+      <c r="R19" s="7">
+        <f t="shared" si="3"/>
+        <v>0.129</v>
+      </c>
+      <c r="S19" s="7">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="T19" s="7">
         <f t="shared" si="5"/>
-        <v>32.090000000000003</v>
-      </c>
-      <c r="O19" s="8">
+        <v>5.6520000000000001</v>
+      </c>
+      <c r="U19" s="7">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="P19" s="7">
-        <f t="shared" si="0"/>
-        <v>1.3425</v>
-      </c>
-      <c r="R19" s="7">
-        <f t="shared" si="1"/>
-        <v>0.129</v>
-      </c>
-      <c r="S19" s="7">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="T19" s="7">
-        <f t="shared" si="3"/>
-        <v>5.6520000000000001</v>
-      </c>
-      <c r="U19" s="7">
-        <f t="shared" si="4"/>
         <v>0.17193638226112712</v>
       </c>
     </row>
@@ -5740,31 +5740,31 @@
         <v>6.2370000000000001</v>
       </c>
       <c r="N20" s="8">
+        <f t="shared" si="7"/>
+        <v>33.01</v>
+      </c>
+      <c r="O20" s="8">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="P20" s="7">
+        <f t="shared" si="2"/>
+        <v>1.4875</v>
+      </c>
+      <c r="R20" s="7">
+        <f t="shared" si="3"/>
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="S20" s="7">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="T20" s="7">
         <f t="shared" si="5"/>
-        <v>33.01</v>
-      </c>
-      <c r="O20" s="8">
+        <v>6.2349999999999994</v>
+      </c>
+      <c r="U20" s="7">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="P20" s="7">
-        <f t="shared" si="0"/>
-        <v>1.4875</v>
-      </c>
-      <c r="R20" s="7">
-        <f t="shared" si="1"/>
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="S20" s="7">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="T20" s="7">
-        <f t="shared" si="3"/>
-        <v>6.2349999999999994</v>
-      </c>
-      <c r="U20" s="7">
-        <f t="shared" si="4"/>
         <v>0.18946520583831036</v>
       </c>
     </row>
@@ -5794,31 +5794,31 @@
         <v>6.8659999999999997</v>
       </c>
       <c r="N21" s="8">
+        <f t="shared" si="7"/>
+        <v>34.01</v>
+      </c>
+      <c r="O21" s="8">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="P21" s="7">
+        <f t="shared" si="2"/>
+        <v>1.6455</v>
+      </c>
+      <c r="R21" s="7">
+        <f t="shared" si="3"/>
+        <v>0.1585</v>
+      </c>
+      <c r="S21" s="7">
+        <f t="shared" si="4"/>
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="T21" s="7">
         <f t="shared" si="5"/>
-        <v>34.01</v>
-      </c>
-      <c r="O21" s="8">
+        <v>6.8635000000000002</v>
+      </c>
+      <c r="U21" s="7">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="P21" s="7">
-        <f t="shared" si="0"/>
-        <v>1.6455</v>
-      </c>
-      <c r="R21" s="7">
-        <f t="shared" si="1"/>
-        <v>0.1585</v>
-      </c>
-      <c r="S21" s="7">
-        <f t="shared" si="2"/>
-        <v>1.0500000000000001E-2</v>
-      </c>
-      <c r="T21" s="7">
-        <f t="shared" si="3"/>
-        <v>6.8635000000000002</v>
-      </c>
-      <c r="U21" s="7">
-        <f t="shared" si="4"/>
         <v>0.20886205938592486</v>
       </c>
     </row>
@@ -5848,31 +5848,31 @@
         <v>7.5149999999999997</v>
       </c>
       <c r="N22" s="8">
+        <f t="shared" si="7"/>
+        <v>35.04</v>
+      </c>
+      <c r="O22" s="8">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="P22" s="7">
+        <f t="shared" si="2"/>
+        <v>1.8085</v>
+      </c>
+      <c r="R22" s="7">
+        <f t="shared" si="3"/>
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="S22" s="7">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="T22" s="7">
         <f t="shared" si="5"/>
-        <v>35.04</v>
-      </c>
-      <c r="O22" s="8">
+        <v>7.5124999999999993</v>
+      </c>
+      <c r="U22" s="7">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="P22" s="7">
-        <f t="shared" si="0"/>
-        <v>1.8085</v>
-      </c>
-      <c r="R22" s="7">
-        <f t="shared" si="1"/>
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="S22" s="7">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="T22" s="7">
-        <f t="shared" si="3"/>
-        <v>7.5124999999999993</v>
-      </c>
-      <c r="U22" s="7">
-        <f t="shared" si="4"/>
         <v>0.22837527808505287</v>
       </c>
     </row>
@@ -5902,31 +5902,31 @@
         <v>8.1579999999999995</v>
       </c>
       <c r="N23" s="8">
+        <f t="shared" si="7"/>
+        <v>36.06</v>
+      </c>
+      <c r="O23" s="8">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="P23" s="7">
+        <f t="shared" si="2"/>
+        <v>1.964</v>
+      </c>
+      <c r="R23" s="7">
+        <f t="shared" si="3"/>
+        <v>0.189</v>
+      </c>
+      <c r="S23" s="7">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="T23" s="7">
         <f t="shared" si="5"/>
-        <v>36.06</v>
-      </c>
-      <c r="O23" s="8">
+        <v>8.1544999999999987</v>
+      </c>
+      <c r="U23" s="7">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="P23" s="7">
-        <f t="shared" si="0"/>
-        <v>1.964</v>
-      </c>
-      <c r="R23" s="7">
-        <f t="shared" si="1"/>
-        <v>0.189</v>
-      </c>
-      <c r="S23" s="7">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="T23" s="7">
-        <f t="shared" si="3"/>
-        <v>8.1544999999999987</v>
-      </c>
-      <c r="U23" s="7">
-        <f t="shared" si="4"/>
         <v>0.24867803063488356</v>
       </c>
     </row>
@@ -5956,31 +5956,31 @@
         <v>8.766</v>
       </c>
       <c r="N24" s="8">
+        <f t="shared" si="7"/>
+        <v>37.020000000000003</v>
+      </c>
+      <c r="O24" s="8">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="P24" s="7">
+        <f t="shared" si="2"/>
+        <v>2.1195000000000004</v>
+      </c>
+      <c r="R24" s="7">
+        <f t="shared" si="3"/>
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="S24" s="7">
+        <f t="shared" si="4"/>
+        <v>0.01</v>
+      </c>
+      <c r="T24" s="7">
         <f t="shared" si="5"/>
-        <v>37.020000000000003</v>
-      </c>
-      <c r="O24" s="8">
+        <v>8.7645</v>
+      </c>
+      <c r="U24" s="7">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="P24" s="7">
-        <f t="shared" si="0"/>
-        <v>2.1195000000000004</v>
-      </c>
-      <c r="R24" s="7">
-        <f t="shared" si="1"/>
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="S24" s="7">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="T24" s="7">
-        <f t="shared" si="3"/>
-        <v>8.7645</v>
-      </c>
-      <c r="U24" s="7">
-        <f t="shared" si="4"/>
         <v>0.26501865221649873</v>
       </c>
     </row>
@@ -6010,31 +6010,31 @@
         <v>9.3989999999999991</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" ref="N25" si="7">AVERAGE(E25:F25)</f>
+        <f t="shared" ref="N25" si="9">AVERAGE(E25:F25)</f>
         <v>38.020000000000003</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" ref="O25" si="8">(F25-E25)/2+0.5</f>
+        <f t="shared" ref="O25" si="10">(F25-E25)/2+0.5</f>
         <v>0.5</v>
       </c>
       <c r="P25" s="7">
-        <f t="shared" ref="P25" si="9">AVERAGE(G25:H25)</f>
+        <f t="shared" ref="P25" si="11">AVERAGE(G25:H25)</f>
         <v>2.2809999999999997</v>
       </c>
       <c r="R25" s="7">
-        <f t="shared" ref="R25" si="10">AVERAGE(I25:J25)</f>
+        <f t="shared" ref="R25" si="12">AVERAGE(I25:J25)</f>
         <v>0.22</v>
       </c>
       <c r="S25" s="7">
-        <f t="shared" ref="S25" si="11">(J25-I25)/2+0.01</f>
+        <f t="shared" ref="S25" si="13">(J25-I25)/2+0.01</f>
         <v>0.01</v>
       </c>
       <c r="T25" s="7">
-        <f t="shared" ref="T25" si="12">AVERAGE(K25:L25)</f>
+        <f t="shared" ref="T25" si="14">AVERAGE(K25:L25)</f>
         <v>9.3969999999999985</v>
       </c>
       <c r="U25" s="7">
-        <f t="shared" ref="U25" si="13">(L25-K25)/2+T25*SQRT(0.03^2+0.002^2)</f>
+        <f t="shared" ref="U25" si="15">(L25-K25)/2+T25*SQRT(0.03^2+0.002^2)</f>
         <v>0.28453577213514014</v>
       </c>
     </row>
@@ -7254,13 +7254,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="N5:U5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="N3:U3"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="N4:U4"/>
     <mergeCell ref="N6:U6"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
@@ -7270,6 +7263,13 @@
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="T8:U8"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="N5:U5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="N4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7283,8 +7283,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8294,13 +8294,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="N5:U5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="N3:U3"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="N4:U4"/>
     <mergeCell ref="N6:U6"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:H8"/>
@@ -8310,6 +8303,13 @@
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="T8:U8"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="N5:U5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="N4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
